--- a/DesignDocument/(5Team_Project_002) Time logs.xlsx
+++ b/DesignDocument/(5Team_Project_002) Time logs.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surepark\SureParkSystem\DesignDocument\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="180" windowWidth="14370" windowHeight="6525"/>
+    <workbookView xWindow="3840" yWindow="180" windowWidth="14370" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="Time Logs" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Analysis" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Expected time</t>
   </si>
@@ -29,132 +33,68 @@
     <t>Actual time</t>
   </si>
   <si>
-    <t>expected</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>actual</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>05월 24일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>05월 31일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월 11일</t>
-  </si>
-  <si>
-    <t>6월 12일</t>
-  </si>
-  <si>
-    <t>6월 13일</t>
-  </si>
-  <si>
-    <t>6월 14일</t>
-  </si>
-  <si>
-    <t>6월 15일</t>
-  </si>
-  <si>
-    <t>6월 16일</t>
-  </si>
-  <si>
-    <t>6월 17일</t>
-  </si>
-  <si>
-    <t>6월 18일</t>
-  </si>
-  <si>
-    <t>6월 19일</t>
-  </si>
-  <si>
-    <t>6월 20일</t>
-  </si>
-  <si>
-    <t>6월 21일</t>
-  </si>
-  <si>
-    <t>6월 22일</t>
-  </si>
-  <si>
-    <t>6월 23일</t>
-  </si>
-  <si>
-    <t>6월 24일</t>
-  </si>
-  <si>
-    <t>KM Lee</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JD Jeon</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH Lee</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>YC Park</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JD Jin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Time log (hours)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>6월 5일</t>
+    <t>Actual cost</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>5월 31일</t>
+    <t>Planned value</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>6월 1일</t>
+    <t>Earned value</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>6월 2일</t>
-  </si>
-  <si>
-    <t>6월 3일</t>
-  </si>
-  <si>
-    <t>6월 4일</t>
-  </si>
-  <si>
-    <t>6월 9일</t>
+    <t>sv</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>6월 10일</t>
+    <t>spi</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>6월 6일</t>
+    <t>cv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>6월 7일</t>
+    <t>cpi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>6월 8일</t>
+    <t>Sanghee Lee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daedon Jeon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimoon Lee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yongchul Park</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaedo Jin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Planed Values</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actual Costs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -165,7 +105,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +172,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -272,12 +220,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -321,17 +269,21 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -344,7 +296,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -353,14 +305,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -381,12 +359,204 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -397,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,110 +592,254 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,7 +919,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Expected</c:v>
+            <c:strRef>
+              <c:f>Analysis!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -633,7 +955,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$H$3:$H$8</c:f>
+              <c:f>Analysis!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>m"/"d;@</c:formatCode>
                 <c:ptCount val="6"/>
@@ -660,7 +982,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$J$3:$J$8</c:f>
+              <c:f>Analysis!$J$3:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -691,7 +1013,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Actual</c:v>
+            <c:strRef>
+              <c:f>Analysis!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -719,7 +1049,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$H$3:$H$8</c:f>
+              <c:f>Analysis!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>m"/"d;@</c:formatCode>
                 <c:ptCount val="6"/>
@@ -746,7 +1076,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$L$3:$L$8</c:f>
+              <c:f>Analysis!$L$3:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -757,7 +1087,86 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190</c:v>
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Earned value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>358.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,11 +1181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133101824"/>
-        <c:axId val="133120384"/>
+        <c:axId val="3894792"/>
+        <c:axId val="356549944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133101824"/>
+        <c:axId val="3894792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,12 +1242,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133120384"/>
+        <c:crossAx val="356549944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133120384"/>
+        <c:axId val="356549944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +1304,484 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133101824"/>
+        <c:crossAx val="3894792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Variance</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$O$3:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.5999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-39.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-77.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="356550336"/>
+        <c:axId val="356551120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="356550336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m&quot;/&quot;d;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356551120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="356551120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356550336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -976,7 +1862,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1011,12 +1897,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Time logs</a:t>
+              <a:t>Performance index</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1025,18 +1912,46 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Expected</c:v>
+            <c:strRef>
+              <c:f>Analysis!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1064,7 +1979,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:f>Analysis!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>m"/"d;@</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1091,38 +2006,46 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$8</c:f>
+              <c:f>Analysis!$P$3:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>176</c:v>
+                  <c:v>0.98709677419354847</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268</c:v>
+                  <c:v>0.92812499999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>340</c:v>
+                  <c:v>0.95050675675675689</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>432</c:v>
+                  <c:v>0.9248711340206186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>501</c:v>
+                  <c:v>0.99967177242888405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Actual</c:v>
+            <c:strRef>
+              <c:f>Analysis!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1150,7 +2073,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:f>Analysis!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>m"/"d;@</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1177,20 +2100,32 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$8</c:f>
+              <c:f>Analysis!$R$3:$R$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1200,11 +2135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134952064"/>
-        <c:axId val="134953984"/>
+        <c:axId val="211971280"/>
+        <c:axId val="211973240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134952064"/>
+        <c:axId val="211971280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +2177,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1261,12 +2196,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134953984"/>
+        <c:crossAx val="211973240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134953984"/>
+        <c:axId val="211973240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +2258,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134952064"/>
+        <c:crossAx val="211971280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1337,6 +2272,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1403,20 +2339,3826 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Time logs</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$L$3:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Earned value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>358.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>456.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338051456"/>
+        <c:axId val="338051848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338051456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m&quot;/&quot;d;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338051848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338051848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338051456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Variance</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$O$3:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.5999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-39.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-77.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="336395320"/>
+        <c:axId val="336395712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="336395320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m&quot;/&quot;d;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336395712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="336395712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336395320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Performance index</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$P$3:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98709677419354847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92812499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95050675675675689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9248711340206186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99967177242888405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>m"/"d;@</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$R$3:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="336396888"/>
+        <c:axId val="336397280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="336396888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m&quot;/&quot;d;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336397280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="336397280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336396888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:colOff>232522</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>230280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235322</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1437,27 +6179,22 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvPr id="6" name="차트 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1466,7 +6203,37 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1518,7 +6285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1553,7 +6320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1730,7 +6497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1738,518 +6505,1009 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I31"/>
+  <dimension ref="B3:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="8" width="9" style="12"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F3" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
+      <c r="B3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+    </row>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="80"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="33">
+        <v>42502</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1</v>
+      </c>
+      <c r="H7" s="68">
+        <v>54</v>
+      </c>
+      <c r="I7" s="71">
+        <f>SUM(C7:G14)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="34">
+        <v>42503</v>
+      </c>
+      <c r="C8" s="25">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3</v>
+      </c>
+      <c r="G8" s="41">
+        <v>3</v>
+      </c>
+      <c r="H8" s="69"/>
+      <c r="I8" s="72"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="35">
+        <v>42504</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="72"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="35">
+        <v>42505</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="72"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="34">
+        <v>42506</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="41">
+        <v>1</v>
+      </c>
+      <c r="H11" s="69"/>
+      <c r="I11" s="72"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="34">
+        <v>42507</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="41">
+        <v>2</v>
+      </c>
+      <c r="H12" s="69"/>
+      <c r="I12" s="72"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="34">
+        <v>42508</v>
+      </c>
+      <c r="C13" s="25">
+        <v>3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12">
+        <v>3</v>
+      </c>
+      <c r="G13" s="41">
+        <v>3</v>
+      </c>
+      <c r="H13" s="69"/>
+      <c r="I13" s="72"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="34">
+        <v>42509</v>
+      </c>
+      <c r="C14" s="25">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2</v>
+      </c>
+      <c r="G14" s="41">
+        <v>2</v>
+      </c>
+      <c r="H14" s="69"/>
+      <c r="I14" s="72"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="36">
+        <v>42510</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="72"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="35">
+        <v>42511</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="72"/>
+    </row>
+    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="37">
+        <v>42512</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="73"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="38">
+        <v>42513</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="74">
+        <v>70</v>
+      </c>
+      <c r="I18" s="62">
+        <f>SUM(C18:G25)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="34">
+        <v>42514</v>
+      </c>
+      <c r="C19" s="25">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3</v>
+      </c>
+      <c r="E19" s="11">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12">
+        <v>3</v>
+      </c>
+      <c r="G19" s="41">
+        <v>3</v>
+      </c>
+      <c r="H19" s="75"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="34">
+        <v>42515</v>
+      </c>
+      <c r="C20" s="25">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
+      <c r="F20" s="12">
+        <v>3</v>
+      </c>
+      <c r="G20" s="41">
+        <v>3</v>
+      </c>
+      <c r="H20" s="75"/>
+      <c r="I20" s="63"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="34">
+        <v>42516</v>
+      </c>
+      <c r="C21" s="25">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="11">
+        <v>3</v>
+      </c>
+      <c r="F21" s="12">
+        <v>3</v>
+      </c>
+      <c r="G21" s="41">
+        <v>4</v>
+      </c>
+      <c r="H21" s="75"/>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="34">
+        <v>42517</v>
+      </c>
+      <c r="C22" s="25">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12">
+        <v>3</v>
+      </c>
+      <c r="G22" s="41">
+        <v>4</v>
+      </c>
+      <c r="H22" s="75"/>
+      <c r="I22" s="63"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="35">
+        <v>42518</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="35">
+        <v>42519</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="39">
+        <v>42520</v>
+      </c>
+      <c r="C25" s="31">
+        <v>2</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2</v>
+      </c>
+      <c r="E25" s="19">
+        <v>2</v>
+      </c>
+      <c r="F25" s="20">
+        <v>2</v>
+      </c>
+      <c r="G25" s="47">
+        <v>2</v>
+      </c>
+      <c r="H25" s="76"/>
+      <c r="I25" s="64"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="33">
+        <v>42521</v>
+      </c>
+      <c r="C26" s="24">
+        <v>5</v>
+      </c>
+      <c r="D26" s="21">
+        <v>4</v>
+      </c>
+      <c r="E26" s="21">
+        <v>4</v>
+      </c>
+      <c r="F26" s="22">
+        <v>4</v>
+      </c>
+      <c r="G26" s="40">
+        <v>5</v>
+      </c>
+      <c r="H26" s="65">
+        <v>100</v>
+      </c>
+      <c r="I26" s="62">
+        <f>SUM(C26:G31)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="34">
+        <v>42522</v>
+      </c>
+      <c r="C27" s="25">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11">
+        <v>4</v>
+      </c>
+      <c r="E27" s="11">
+        <v>3</v>
+      </c>
+      <c r="F27" s="12">
+        <v>3</v>
+      </c>
+      <c r="G27" s="41">
+        <v>2</v>
+      </c>
+      <c r="H27" s="66"/>
+      <c r="I27" s="63"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="34">
+        <v>42523</v>
+      </c>
+      <c r="C28" s="25">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11">
+        <v>4</v>
+      </c>
+      <c r="E28" s="11">
+        <v>4</v>
+      </c>
+      <c r="F28" s="12">
+        <v>5</v>
+      </c>
+      <c r="G28" s="41">
+        <v>4</v>
+      </c>
+      <c r="H28" s="66"/>
+      <c r="I28" s="63"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="34">
+        <v>42524</v>
+      </c>
+      <c r="C29" s="25">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11">
+        <v>3</v>
+      </c>
+      <c r="E29" s="11">
+        <v>4</v>
+      </c>
+      <c r="F29" s="12">
+        <v>3</v>
+      </c>
+      <c r="G29" s="41">
+        <v>3</v>
+      </c>
+      <c r="H29" s="66"/>
+      <c r="I29" s="63"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="35">
+        <v>42525</v>
+      </c>
+      <c r="C30" s="26">
+        <v>2</v>
+      </c>
+      <c r="D30" s="13">
+        <v>3</v>
+      </c>
+      <c r="E30" s="13">
+        <v>3</v>
+      </c>
+      <c r="F30" s="14">
+        <v>3</v>
+      </c>
+      <c r="G30" s="42">
+        <v>4</v>
+      </c>
+      <c r="H30" s="66"/>
+      <c r="I30" s="63"/>
+    </row>
+    <row r="31" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="37">
+        <v>42526</v>
+      </c>
+      <c r="C31" s="29">
         <v>6</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="31">
+      <c r="D31" s="23">
+        <v>8</v>
+      </c>
+      <c r="E31" s="23">
+        <v>4</v>
+      </c>
+      <c r="F31" s="23">
+        <v>4</v>
+      </c>
+      <c r="G31" s="45">
+        <v>4</v>
+      </c>
+      <c r="H31" s="67"/>
+      <c r="I31" s="64"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="33">
+        <v>42527</v>
+      </c>
+      <c r="C32" s="49">
+        <v>6</v>
+      </c>
+      <c r="D32" s="50">
+        <v>6</v>
+      </c>
+      <c r="E32" s="50">
+        <v>6</v>
+      </c>
+      <c r="F32" s="50">
+        <v>6</v>
+      </c>
+      <c r="G32" s="51">
+        <v>6</v>
+      </c>
+      <c r="H32" s="55">
+        <v>108</v>
+      </c>
+      <c r="I32" s="58">
+        <f>SUM(C32:G38)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="34">
+        <v>42528</v>
+      </c>
+      <c r="C33" s="32">
+        <v>4</v>
+      </c>
+      <c r="D33" s="10">
+        <v>4</v>
+      </c>
+      <c r="E33" s="10">
+        <v>3</v>
+      </c>
+      <c r="F33" s="10">
+        <v>4</v>
+      </c>
+      <c r="G33" s="48">
+        <v>3</v>
+      </c>
+      <c r="H33" s="56"/>
+      <c r="I33" s="59"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="34">
+        <v>42529</v>
+      </c>
+      <c r="C34" s="32">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10">
+        <v>2</v>
+      </c>
+      <c r="F34" s="10">
+        <v>2</v>
+      </c>
+      <c r="G34" s="48">
+        <v>2</v>
+      </c>
+      <c r="H34" s="56"/>
+      <c r="I34" s="59"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="34">
+        <v>42530</v>
+      </c>
+      <c r="C35" s="32">
+        <v>3</v>
+      </c>
+      <c r="D35" s="10">
+        <v>3</v>
+      </c>
+      <c r="E35" s="10">
+        <v>3</v>
+      </c>
+      <c r="F35" s="10">
+        <v>3</v>
+      </c>
+      <c r="G35" s="48">
+        <v>3</v>
+      </c>
+      <c r="H35" s="56"/>
+      <c r="I35" s="59"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="34">
+        <v>42531</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="59"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="35">
+        <v>42532</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="9">
+        <v>5</v>
+      </c>
+      <c r="E37" s="9">
+        <v>5</v>
+      </c>
+      <c r="F37" s="9">
+        <v>5</v>
+      </c>
+      <c r="G37" s="43">
+        <v>5</v>
+      </c>
+      <c r="H37" s="56"/>
+      <c r="I37" s="59"/>
+    </row>
+    <row r="38" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="37">
+        <v>42533</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="23">
+        <v>5</v>
+      </c>
+      <c r="E38" s="23">
+        <v>5</v>
+      </c>
+      <c r="F38" s="23">
+        <v>5</v>
+      </c>
+      <c r="G38" s="45">
+        <v>5</v>
+      </c>
+      <c r="H38" s="57"/>
+      <c r="I38" s="60"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="33">
+        <v>42534</v>
+      </c>
+      <c r="C39" s="49">
+        <v>5</v>
+      </c>
+      <c r="D39" s="50">
+        <v>5</v>
+      </c>
+      <c r="E39" s="50">
+        <v>5</v>
+      </c>
+      <c r="F39" s="50">
+        <v>5</v>
+      </c>
+      <c r="G39" s="51">
+        <v>5</v>
+      </c>
+      <c r="H39" s="55">
+        <v>92</v>
+      </c>
+      <c r="I39" s="58">
+        <f>SUM(C39:G45)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="34">
+        <v>42535</v>
+      </c>
+      <c r="C40" s="32">
+        <v>3</v>
+      </c>
+      <c r="D40" s="10">
+        <v>6</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="48">
+        <v>6</v>
+      </c>
+      <c r="H40" s="56"/>
+      <c r="I40" s="59"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="34">
+        <v>42536</v>
+      </c>
+      <c r="C41" s="32">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10">
+        <v>5</v>
+      </c>
+      <c r="E41" s="10">
+        <v>5</v>
+      </c>
+      <c r="F41" s="10">
+        <v>5</v>
+      </c>
+      <c r="G41" s="48">
+        <v>5</v>
+      </c>
+      <c r="H41" s="56"/>
+      <c r="I41" s="59"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="34">
+        <v>42537</v>
+      </c>
+      <c r="C42" s="32">
+        <v>5</v>
+      </c>
+      <c r="D42" s="10">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10">
+        <v>5</v>
+      </c>
+      <c r="F42" s="10">
+        <v>5</v>
+      </c>
+      <c r="G42" s="48">
+        <v>5</v>
+      </c>
+      <c r="H42" s="56"/>
+      <c r="I42" s="59"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="34">
+        <v>42538</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="59"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="35">
+        <v>42539</v>
+      </c>
+      <c r="C44" s="27">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9">
+        <v>6</v>
+      </c>
+      <c r="E44" s="9">
+        <v>6</v>
+      </c>
+      <c r="F44" s="9">
+        <v>6</v>
+      </c>
+      <c r="G44" s="43">
+        <v>6</v>
+      </c>
+      <c r="H44" s="56"/>
+      <c r="I44" s="59"/>
+    </row>
+    <row r="45" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="37">
+        <v>42540</v>
+      </c>
+      <c r="C45" s="29">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="37">
-        <v>6</v>
-      </c>
-      <c r="D12" s="37">
-        <v>8</v>
-      </c>
-      <c r="E12" s="37">
-        <v>4</v>
-      </c>
-      <c r="F12" s="37">
-        <v>4</v>
-      </c>
-      <c r="G12" s="37">
-        <v>4</v>
-      </c>
-      <c r="H12" s="38">
-        <v>26</v>
-      </c>
-      <c r="I12">
-        <f>SUM(H7:H12)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="28">
-        <v>6</v>
-      </c>
-      <c r="D13" s="28">
-        <v>6</v>
-      </c>
-      <c r="E13" s="28">
-        <v>6</v>
-      </c>
-      <c r="F13" s="28">
-        <v>6</v>
-      </c>
-      <c r="G13" s="28">
-        <v>6</v>
-      </c>
-      <c r="H13" s="35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="21">
-        <v>4</v>
-      </c>
-      <c r="D14" s="21">
-        <v>4</v>
-      </c>
-      <c r="E14" s="21">
-        <v>3</v>
-      </c>
-      <c r="F14" s="21">
-        <v>4</v>
-      </c>
-      <c r="G14" s="28">
-        <v>3</v>
-      </c>
-      <c r="H14" s="33">
-        <f>SUM(C14:G14)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="21">
-        <v>2</v>
-      </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21">
-        <v>2</v>
-      </c>
-      <c r="F15" s="18">
-        <v>2</v>
-      </c>
-      <c r="G15" s="18">
-        <v>2</v>
-      </c>
-      <c r="H15" s="33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="21">
-        <v>3</v>
-      </c>
-      <c r="D16" s="19">
-        <v>3</v>
-      </c>
-      <c r="E16" s="21">
-        <v>3</v>
-      </c>
-      <c r="F16" s="19">
-        <v>3</v>
-      </c>
-      <c r="G16" s="19">
-        <v>3</v>
-      </c>
-      <c r="H16" s="33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="D45" s="23">
         <v>7</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16">
-        <v>5</v>
-      </c>
-      <c r="E18" s="16">
-        <v>5</v>
-      </c>
-      <c r="F18" s="16">
-        <v>5</v>
-      </c>
-      <c r="G18" s="16">
-        <v>5</v>
-      </c>
-      <c r="H18" s="33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37">
-        <v>5</v>
-      </c>
-      <c r="E19" s="37">
-        <v>5</v>
-      </c>
-      <c r="F19" s="37">
-        <v>5</v>
-      </c>
-      <c r="G19" s="37">
-        <v>5</v>
-      </c>
-      <c r="H19" s="41">
-        <v>20</v>
-      </c>
-      <c r="I19">
-        <f>SUM(H13:H19)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="28">
-        <v>5</v>
-      </c>
-      <c r="D20" s="28">
-        <v>5</v>
-      </c>
-      <c r="E20" s="28">
-        <v>5</v>
-      </c>
-      <c r="F20" s="28">
-        <v>5</v>
-      </c>
-      <c r="G20" s="28">
-        <v>5</v>
-      </c>
-      <c r="H20" s="40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="21">
-        <v>3</v>
-      </c>
-      <c r="D21" s="17">
-        <v>6</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17">
-        <v>6</v>
-      </c>
-      <c r="H21" s="33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="E45" s="23">
+        <v>7</v>
+      </c>
+      <c r="F45" s="23">
+        <v>7</v>
+      </c>
+      <c r="G45" s="45">
+        <v>7</v>
+      </c>
+      <c r="H45" s="57"/>
+      <c r="I45" s="60"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="33">
+        <v>42541</v>
+      </c>
+      <c r="C46" s="49">
         <v>11</v>
       </c>
-      <c r="C22" s="21">
-        <v>5</v>
-      </c>
-      <c r="D22" s="20">
-        <v>5</v>
-      </c>
-      <c r="E22" s="21">
-        <v>5</v>
-      </c>
-      <c r="F22" s="20">
-        <v>5</v>
-      </c>
-      <c r="G22" s="20">
-        <v>5</v>
-      </c>
-      <c r="H22" s="33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="D46" s="50">
+        <v>11</v>
+      </c>
+      <c r="E46" s="50">
+        <v>11</v>
+      </c>
+      <c r="F46" s="50">
+        <v>11</v>
+      </c>
+      <c r="G46" s="51">
+        <v>11</v>
+      </c>
+      <c r="H46" s="55">
+        <v>69</v>
+      </c>
+      <c r="I46" s="58">
+        <f>SUM(C46:G50)</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="34">
+        <v>42542</v>
+      </c>
+      <c r="C47" s="32">
         <v>12</v>
       </c>
-      <c r="C23" s="21">
-        <v>5</v>
-      </c>
-      <c r="D23" s="21">
-        <v>5</v>
-      </c>
-      <c r="E23" s="21">
-        <v>5</v>
-      </c>
-      <c r="F23" s="21">
-        <v>5</v>
-      </c>
-      <c r="G23" s="21">
-        <v>5</v>
-      </c>
-      <c r="H23" s="33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="D47" s="10">
+        <v>12</v>
+      </c>
+      <c r="E47" s="10">
         <v>13</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="16">
-        <v>6</v>
-      </c>
-      <c r="D25" s="16">
-        <v>6</v>
-      </c>
-      <c r="E25" s="16">
-        <v>6</v>
-      </c>
-      <c r="F25" s="16">
-        <v>6</v>
-      </c>
-      <c r="G25" s="16">
-        <v>6</v>
-      </c>
-      <c r="H25" s="33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="41"/>
-      <c r="I26">
-        <f>SUM(H20:H26)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="33"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="33"/>
-      <c r="I31">
-        <f>SUM(H27:H31)</f>
-        <v>0</v>
+      <c r="F47" s="10">
+        <v>13</v>
+      </c>
+      <c r="G47" s="48">
+        <v>12</v>
+      </c>
+      <c r="H47" s="56"/>
+      <c r="I47" s="59"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="34">
+        <v>42543</v>
+      </c>
+      <c r="C48" s="32">
+        <v>13</v>
+      </c>
+      <c r="D48" s="10">
+        <v>13</v>
+      </c>
+      <c r="E48" s="10">
+        <v>13</v>
+      </c>
+      <c r="F48" s="10">
+        <v>13</v>
+      </c>
+      <c r="G48" s="48">
+        <v>13</v>
+      </c>
+      <c r="H48" s="56"/>
+      <c r="I48" s="59"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="34">
+        <v>42544</v>
+      </c>
+      <c r="C49" s="32">
+        <v>12</v>
+      </c>
+      <c r="D49" s="10">
+        <v>12</v>
+      </c>
+      <c r="E49" s="10">
+        <v>12</v>
+      </c>
+      <c r="F49" s="10">
+        <v>12</v>
+      </c>
+      <c r="G49" s="48">
+        <v>12</v>
+      </c>
+      <c r="H49" s="56"/>
+      <c r="I49" s="59"/>
+    </row>
+    <row r="50" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="39">
+        <v>42545</v>
+      </c>
+      <c r="C50" s="52">
+        <v>1</v>
+      </c>
+      <c r="D50" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="57"/>
+      <c r="I50" s="60"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H51" s="8">
+        <f>SUM(H7:H49)</f>
+        <v>493</v>
+      </c>
+      <c r="I51" s="8">
+        <f>SUM(I7:I50)</f>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+  <mergeCells count="21">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H46:H50"/>
+    <mergeCell ref="I46:I50"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="I26:I31"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="I32:I38"/>
+    <mergeCell ref="H32:H38"/>
+    <mergeCell ref="I39:I45"/>
+    <mergeCell ref="H39:H45"/>
+    <mergeCell ref="H7:H17"/>
+    <mergeCell ref="I7:I17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L61"/>
+  <dimension ref="A2:R61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2258,7 +7516,7 @@
     <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2266,25 +7524,39 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>42502</v>
-      </c>
-      <c r="B3" s="2">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2">
-        <v>60</v>
-      </c>
+        <v>42508</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3">
         <f>C3-B3</f>
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
       </c>
       <c r="H3" s="7">
         <v>42502</v>
@@ -2295,19 +7567,46 @@
       <c r="J3" s="2">
         <v>54</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>60</v>
       </c>
       <c r="L3" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <f>K3*0.9</f>
+        <v>54</v>
+      </c>
+      <c r="N3">
+        <f>L3*1</f>
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <f>M3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>N3/J3</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="Q3">
+        <f>M3-K3</f>
+        <v>-6</v>
+      </c>
+      <c r="R3">
+        <f>M3/K3</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
+      </c>
+      <c r="F4">
+        <v>78</v>
       </c>
       <c r="H4" s="7">
         <v>42514</v>
@@ -2319,17 +7618,44 @@
         <f>J3+I4</f>
         <v>124</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>78</v>
       </c>
       <c r="L4">
         <f>L3+K4</f>
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <f>K4*0.8</f>
+        <v>62.400000000000006</v>
+      </c>
+      <c r="N4">
+        <f>N3+M4</f>
+        <v>122.4</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O8" si="0">M4-I4</f>
+        <v>-7.5999999999999943</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P8" si="1">N4/J4</f>
+        <v>0.98709677419354847</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q8" si="2">M4-K4</f>
+        <v>-15.599999999999994</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R8" si="3">M4/K4</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+      <c r="F5">
+        <v>114</v>
+      </c>
       <c r="H5" s="7">
         <v>42521</v>
       </c>
@@ -2341,19 +7667,46 @@
         <v>224</v>
       </c>
       <c r="K5">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="L5">
         <f>L4+K5</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="M5">
+        <f>K5*0.75</f>
+        <v>85.5</v>
+      </c>
+      <c r="N5">
+        <f>N4+M5</f>
+        <v>207.9</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>-14.5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0.92812499999999998</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>-28.5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
+      </c>
+      <c r="F6">
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>42527</v>
@@ -2366,14 +7719,47 @@
         <f>J5+I6</f>
         <v>296</v>
       </c>
-      <c r="K6" s="42"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>113</v>
+      </c>
+      <c r="L6">
+        <f>L5+K6</f>
+        <v>365</v>
+      </c>
+      <c r="M6">
+        <f>K6*0.65</f>
+        <v>73.45</v>
+      </c>
+      <c r="N6">
+        <f>N5+M6</f>
+        <v>281.35000000000002</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>1.4500000000000028</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0.95050675675675689</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>-39.549999999999997</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>12</v>
+      </c>
+      <c r="F7">
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>42534</v>
@@ -2385,13 +7771,47 @@
         <f>J6+I7</f>
         <v>388</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>155</v>
+      </c>
+      <c r="L7">
+        <f>L6+K7</f>
+        <v>520</v>
+      </c>
+      <c r="M7">
+        <f>K7*0.5</f>
+        <v>77.5</v>
+      </c>
+      <c r="N7">
+        <f>N6+M7</f>
+        <v>358.85</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>-14.5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0.9248711340206186</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>-77.5</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
+      </c>
+      <c r="F8">
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>42541</v>
@@ -2403,8 +7823,39 @@
         <f>J7+I8</f>
         <v>457</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>245</v>
+      </c>
+      <c r="L8">
+        <f>L7+K8</f>
+        <v>765</v>
+      </c>
+      <c r="M8">
+        <f>K8*0.4</f>
+        <v>98</v>
+      </c>
+      <c r="N8">
+        <f>N7+M8</f>
+        <v>456.85</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0.99967177242888405</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>-147</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>10</v>
       </c>
@@ -2412,11 +7863,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>5</v>
       </c>
@@ -2424,7 +7875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -2432,7 +7883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -2440,7 +7891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -2448,10 +7899,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>42514</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>15</v>
       </c>
@@ -2495,7 +7950,7 @@
       <c r="B22" s="3">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>6</v>
       </c>
     </row>
@@ -2503,7 +7958,7 @@
       <c r="B23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2511,79 +7966,74 @@
       <c r="B24" s="3">
         <v>2</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <f>SUM(B16:B24)</f>
-        <v>70</v>
-      </c>
-      <c r="C25">
-        <f>SUM(C16:C24)</f>
-        <v>78</v>
+      <c r="A25" s="7">
+        <v>42521</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
       <c r="B27" s="3">
-        <v>20</v>
-      </c>
-      <c r="C27" s="2">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>20</v>
       </c>
-      <c r="C29" s="2">
-        <v>18</v>
+      <c r="C29" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>8</v>
       </c>
-      <c r="C30" s="2">
-        <v>1</v>
+      <c r="C30" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>16</v>
       </c>
-      <c r="C31" s="2">
-        <v>4</v>
+      <c r="C31" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>16</v>
       </c>
-      <c r="C32" s="2">
-        <v>4</v>
+      <c r="C32" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>8</v>
       </c>
-      <c r="C33" s="2">
-        <f>SUM(C27:C32)</f>
-        <v>52</v>
-      </c>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
@@ -2592,149 +8042,176 @@
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="3">
-        <f>SUM(B27:B34)</f>
-        <v>100</v>
-      </c>
+      <c r="A35" s="7">
+        <v>42527</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="3">
+        <v>20</v>
+      </c>
+      <c r="C36" s="3">
+        <v>27</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>42527</v>
-      </c>
-      <c r="B37" s="2">
-        <f>72</f>
-        <v>72</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>20</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>16</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="3">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>16</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
-        <v>8</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C41" s="3">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>8</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="3">
+        <v>21</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="3">
         <v>4</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
         <v>42534</v>
       </c>
-      <c r="B45" s="2">
-        <f>SUM(B46:B52)</f>
-        <v>92</v>
-      </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="3">
-        <v>20</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>20</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C48" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C49" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>16</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
-        <v>8</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="3">
         <v>4</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+      <c r="A54" s="7">
         <v>42541</v>
       </c>
-      <c r="B54" s="2">
-        <f>SUM(B55:B61)</f>
-        <v>69</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>15</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>15</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
       <c r="B57" s="3">
         <v>15</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="3">
+        <v>35</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
@@ -2744,495 +8221,25 @@
       <c r="B59" s="3">
         <v>20</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>2</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>2</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C61" s="3">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>42502</v>
-      </c>
-      <c r="B3" s="2">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <f>C3-B3</f>
-        <v>6</v>
-      </c>
-      <c r="H3" s="7">
-        <v>42502</v>
-      </c>
-      <c r="I3" s="2">
-        <v>54</v>
-      </c>
-      <c r="J3" s="2">
-        <v>54</v>
-      </c>
-      <c r="K3" s="2">
-        <v>60</v>
-      </c>
-      <c r="L3" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>42514</v>
-      </c>
-      <c r="I4" s="2">
-        <v>122</v>
-      </c>
-      <c r="J4">
-        <f>J3+I4</f>
-        <v>176</v>
-      </c>
-      <c r="K4" s="2">
-        <v>38</v>
-      </c>
-      <c r="L4">
-        <f>L3+K4</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="H5" s="7">
-        <v>42521</v>
-      </c>
-      <c r="I5" s="2">
-        <v>92</v>
-      </c>
-      <c r="J5">
-        <f>J4+I5</f>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>10</v>
-      </c>
-      <c r="H6" s="7">
-        <v>42527</v>
-      </c>
-      <c r="I6" s="2">
-        <f>72</f>
-        <v>72</v>
-      </c>
-      <c r="J6">
-        <f>J5+I6</f>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7">
-        <v>42534</v>
-      </c>
-      <c r="I7" s="2">
-        <v>92</v>
-      </c>
-      <c r="J7">
-        <f>J6+I7</f>
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10</v>
-      </c>
-      <c r="H8" s="7">
-        <v>42541</v>
-      </c>
-      <c r="I8" s="5">
-        <v>69</v>
-      </c>
-      <c r="J8">
-        <f>J7+I8</f>
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="3">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
-        <v>20</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="3">
-        <v>8</v>
-      </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="3">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="3">
-        <v>16</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="3">
-        <v>8</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="3">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>42527</v>
-      </c>
-      <c r="B40" s="2">
-        <f>72</f>
-        <v>72</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="3">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="3">
-        <v>48</v>
-      </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="3">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>42534</v>
-      </c>
-      <c r="B45" s="2">
-        <f>SUM(B46:B52)</f>
-        <v>92</v>
-      </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="3">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="3">
-        <v>20</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="3">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="3">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="3">
-        <v>16</v>
-      </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="3">
-        <v>8</v>
-      </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="3">
-        <v>4</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>42541</v>
-      </c>
-      <c r="B53" s="2">
-        <f>SUM(B54:B60)</f>
-        <v>69</v>
-      </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="3">
-        <v>15</v>
-      </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="3">
-        <v>15</v>
-      </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="3">
-        <v>15</v>
-      </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="3">
-        <v>20</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="3">
-        <v>2</v>
-      </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="3">
-        <v>2</v>
-      </c>
-      <c r="C60" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
